--- a/Data/Input/InputMaster.xlsx
+++ b/Data/Input/InputMaster.xlsx
@@ -19,12 +19,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>ProcessId</t>
   </si>
@@ -35,35 +44,77 @@
     <t>Process Name</t>
   </si>
   <si>
+    <t>Download Report</t>
+  </si>
+  <si>
+    <t>Retrieve PDP Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minet Order Report processing </t>
+  </si>
+  <si>
+    <t>Manual Order Processing</t>
+  </si>
+  <si>
+    <t>NPLP File Processing</t>
+  </si>
+  <si>
+    <t>Process Data</t>
+  </si>
+  <si>
+    <t>Credit Report Processing</t>
+  </si>
+  <si>
+    <t>Credit Balance.xlsx</t>
+  </si>
+  <si>
+    <t>Stock Reporting processing</t>
+  </si>
+  <si>
+    <t>Stock Report.xlsx</t>
+  </si>
+  <si>
+    <t>Substitute master Processing</t>
+  </si>
+  <si>
+    <t>Substitute Master.xlsx</t>
+  </si>
+  <si>
+    <t>Exclusion master processing</t>
+  </si>
+  <si>
+    <t>Excluded Master.xlsx</t>
+  </si>
+  <si>
+    <t>FSSAI Report Processing</t>
+  </si>
+  <si>
+    <t>Fssai Licence.xlsx</t>
+  </si>
+  <si>
+    <t>Collate Other Master Report</t>
+  </si>
+  <si>
+    <t>OMS Operation</t>
+  </si>
+  <si>
+    <t>OMS Allocation process</t>
+  </si>
+  <si>
     <t>Input</t>
   </si>
   <si>
     <t>Output</t>
   </si>
   <si>
-    <t>Process Data</t>
-  </si>
-  <si>
-    <t>Credit Report Processing</t>
-  </si>
-  <si>
-    <t>Credit Balance.xlsx</t>
-  </si>
-  <si>
-    <t>Download Report</t>
-  </si>
-  <si>
-    <t>Retrieve PDP Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minet Order Report processing </t>
+    <t>PromoDetails.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +143,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +173,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -180,10 +245,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -191,39 +257,49 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -516,63 +592,179 @@
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>10</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
